--- a/data/covid19japan_beds/001029802.xlsx
+++ b/data/covid19japan_beds/001029802.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="8760"/>
   </bookViews>
   <sheets>
     <sheet name="公表資料" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <definedName name="eee">#REF!</definedName>
     <definedName name="g">#REF!</definedName>
     <definedName name="h">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">公表資料!$A$1:$AI$74</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">公表資料!$A$1:$AI$75</definedName>
     <definedName name="qqq">#REF!</definedName>
     <definedName name="rrr">#REF!</definedName>
     <definedName name="w">#REF!</definedName>
@@ -69,9 +69,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="124">
-  <si>
-    <t>令和4年12月23日公表</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="125">
+  <si>
+    <t>令和4年12月23日公表
+(12月27日修正)</t>
   </si>
   <si>
     <t>都道府県名</t>
@@ -1156,6 +1157,13 @@
     <t>注17：⑹①-１療養先調整中の人数のうち、療養場所の種別が「入院」と決定したが、調査時点で入院療養が開始していない者の数</t>
   </si>
   <si>
+    <t>注18：大阪府の即応居室数について修正（12月27日修正）</t>
+    <rPh sb="4" eb="7">
+      <t>オオサカフ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
     <t>新型コロナウイルス感染症患者の療養状況、病床数等に関する調査結果（12月21日0時時点）</t>
   </si>
   <si>
@@ -1232,8 +1240,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0&quot;%&quot;"/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd\(aaa\)"/>
+    <numFmt numFmtId="177" formatCode="0&quot;%&quot;"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -1303,7 +1312,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -1765,7 +1774,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2047,10 +2056,10 @@
     <xf numFmtId="38" fontId="18" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="18" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2089,10 +2098,10 @@
     <xf numFmtId="38" fontId="18" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="18" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2583,7 +2592,7 @@
   </sheetPr>
   <dimension ref="A1:AJ75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="93" zoomScaleNormal="93" zoomScaleSheetLayoutView="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" zoomScaleSheetLayoutView="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2611,7 +2620,7 @@
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="G1" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -2993,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G9" s="96">
         <v>2284</v>
@@ -3020,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P9" s="96">
         <v>116</v>
@@ -3041,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="V9" s="97" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="W9" s="103">
         <v>2085</v>
@@ -3059,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="AB9" s="97" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AC9" s="103">
         <v>56</v>
@@ -3100,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="97" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G10" s="96">
         <v>478</v>
@@ -3127,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="97" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P10" s="96">
         <v>31</v>
@@ -3148,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="V10" s="97" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="W10" s="103">
         <v>660</v>
@@ -3166,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="97" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AC10" s="103">
         <v>0</v>
@@ -3175,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="AE10" s="100" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF10" s="102">
         <v>10018</v>
@@ -3207,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="97" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G11" s="96">
         <v>348</v>
@@ -3234,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="97" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P11" s="96">
         <v>34</v>
@@ -3255,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="V11" s="97" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="W11" s="103">
         <v>280</v>
@@ -3273,7 +3282,7 @@
         <v>0</v>
       </c>
       <c r="AB11" s="97" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AC11" s="103">
         <v>0</v>
@@ -3282,7 +3291,7 @@
         <v>0</v>
       </c>
       <c r="AE11" s="100" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF11" s="102">
         <v>11727</v>
@@ -3314,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G12" s="96">
         <v>612</v>
@@ -3341,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P12" s="96">
         <v>55</v>
@@ -3362,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="V12" s="97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="W12" s="103">
         <v>2090</v>
@@ -3380,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="AB12" s="97" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AC12" s="103">
         <v>0</v>
@@ -3389,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="AE12" s="100" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF12" s="102">
         <v>21618</v>
@@ -3421,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="97" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G13" s="96">
         <v>311</v>
@@ -3448,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="97" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P13" s="96">
         <v>24</v>
@@ -3469,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="V13" s="97" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="W13" s="103">
         <v>415</v>
@@ -3487,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="AB13" s="97" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AC13" s="103">
         <v>0</v>
@@ -3496,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="AE13" s="100" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF13" s="102">
         <v>7426</v>
@@ -3528,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="97" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G14" s="96">
         <v>290</v>
@@ -3555,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="97" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P14" s="96">
         <v>26</v>
@@ -3576,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="V14" s="97" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="W14" s="103">
         <v>348</v>
@@ -3594,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="AB14" s="97" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AC14" s="103">
         <v>0</v>
@@ -3603,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="AE14" s="100" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF14" s="102">
         <v>7791</v>
@@ -3635,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G15" s="96">
         <v>766</v>
@@ -3662,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P15" s="96">
         <v>46</v>
@@ -3683,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="V15" s="97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="W15" s="103">
         <v>1224</v>
@@ -3701,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="AB15" s="97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AC15" s="103">
         <v>19</v>
@@ -3742,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="97" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G16" s="96">
         <v>800</v>
@@ -3769,7 +3778,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="97" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P16" s="96">
         <v>30</v>
@@ -3790,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V16" s="97" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="W16" s="103">
         <v>1614</v>
@@ -3808,7 +3817,7 @@
         <v>0</v>
       </c>
       <c r="AB16" s="97" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AC16" s="103">
         <v>0</v>
@@ -3817,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="AE16" s="100" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF16" s="102">
         <v>23815</v>
@@ -3849,7 +3858,7 @@
         <v>15</v>
       </c>
       <c r="F17" s="97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G17" s="96">
         <v>687</v>
@@ -3876,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P17" s="96">
         <v>46</v>
@@ -3897,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="V17" s="97" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="W17" s="103">
         <v>755</v>
@@ -3915,7 +3924,7 @@
         <v>15</v>
       </c>
       <c r="AB17" s="97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AC17" s="103">
         <v>102</v>
@@ -3956,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="97" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G18" s="96">
         <v>685</v>
@@ -3983,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="97" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P18" s="96">
         <v>37</v>
@@ -4004,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="V18" s="97" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="W18" s="103">
         <v>854</v>
@@ -4022,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="AB18" s="97" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AC18" s="103">
         <v>0</v>
@@ -4063,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="97" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G19" s="96">
         <v>1639</v>
@@ -4090,7 +4099,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="97" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P19" s="96">
         <v>66</v>
@@ -4111,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="V19" s="97" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="W19" s="103">
         <v>1702</v>
@@ -4129,7 +4138,7 @@
         <v>11</v>
       </c>
       <c r="AB19" s="97" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AC19" s="103">
         <v>24</v>
@@ -4170,7 +4179,7 @@
         <v>51</v>
       </c>
       <c r="F20" s="97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G20" s="96">
         <v>1681</v>
@@ -4197,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P20" s="96">
         <v>117</v>
@@ -4218,7 +4227,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="W20" s="103">
         <v>1758</v>
@@ -4236,7 +4245,7 @@
         <v>51</v>
       </c>
       <c r="AB20" s="97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC20" s="103">
         <v>152</v>
@@ -4277,7 +4286,7 @@
         <v>444</v>
       </c>
       <c r="F21" s="97" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G21" s="96">
         <v>6135</v>
@@ -4304,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="97" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P21" s="96">
         <v>852</v>
@@ -4325,7 +4334,7 @@
         <v>104</v>
       </c>
       <c r="V21" s="97" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="W21" s="103">
         <v>8150</v>
@@ -4343,7 +4352,7 @@
         <v>563</v>
       </c>
       <c r="AB21" s="97" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC21" s="103">
         <v>1242</v>
@@ -4384,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="97" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G22" s="96">
         <v>2200</v>
@@ -4411,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="97" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P22" s="96">
         <v>103</v>
@@ -4432,7 +4441,7 @@
         <v>0</v>
       </c>
       <c r="V22" s="106" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W22" s="103">
         <v>1551</v>
@@ -4450,7 +4459,7 @@
         <v>0</v>
       </c>
       <c r="AB22" s="97" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AC22" s="103">
         <v>0</v>
@@ -4459,7 +4468,7 @@
         <v>0</v>
       </c>
       <c r="AE22" s="100" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF22" s="102">
         <v>67275</v>
@@ -4491,7 +4500,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="97" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G23" s="96">
         <v>533</v>
@@ -4518,7 +4527,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="97" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P23" s="96">
         <v>112</v>
@@ -4539,7 +4548,7 @@
         <v>0</v>
       </c>
       <c r="V23" s="97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="W23" s="103">
         <v>357</v>
@@ -4557,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="AB23" s="97" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AC23" s="103">
         <v>0</v>
@@ -4598,7 +4607,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G24" s="96">
         <v>468</v>
@@ -4625,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P24" s="96">
         <v>36</v>
@@ -4646,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="V24" s="97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="W24" s="103">
         <v>510</v>
@@ -4664,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="AB24" s="97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AC24" s="103">
         <v>0</v>
@@ -4673,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="AE24" s="100" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF24" s="102">
         <v>8611</v>
@@ -4705,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="97" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G25" s="96">
         <v>523</v>
@@ -4732,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="97" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P25" s="96">
         <v>41</v>
@@ -4753,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="V25" s="97" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="W25" s="103">
         <v>630</v>
@@ -4771,7 +4780,7 @@
         <v>0</v>
       </c>
       <c r="AB25" s="97" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AC25" s="103">
         <v>0</v>
@@ -4780,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="AE25" s="100" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF25" s="102">
         <v>9107</v>
@@ -4812,7 +4821,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="97" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G26" s="96">
         <v>308</v>
@@ -4839,7 +4848,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="97" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P26" s="96">
         <v>20</v>
@@ -4860,7 +4869,7 @@
         <v>0</v>
       </c>
       <c r="V26" s="97" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="W26" s="103">
         <v>425</v>
@@ -4878,7 +4887,7 @@
         <v>0</v>
       </c>
       <c r="AB26" s="97" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AC26" s="103">
         <v>0</v>
@@ -4919,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="97" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G27" s="96">
         <v>393</v>
@@ -4946,7 +4955,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="97" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P27" s="96">
         <v>24</v>
@@ -4967,7 +4976,7 @@
         <v>81</v>
       </c>
       <c r="V27" s="97" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="W27" s="103">
         <v>969</v>
@@ -4985,7 +4994,7 @@
         <v>81</v>
       </c>
       <c r="AB27" s="97" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AC27" s="103">
         <v>639</v>
@@ -5026,7 +5035,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G28" s="96">
         <v>557</v>
@@ -5053,7 +5062,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P28" s="96">
         <v>37</v>
@@ -5074,7 +5083,7 @@
         <v>0</v>
       </c>
       <c r="V28" s="97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="W28" s="103">
         <v>735</v>
@@ -5092,7 +5101,7 @@
         <v>0</v>
       </c>
       <c r="AB28" s="97" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AC28" s="103">
         <v>0</v>
@@ -5101,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="AE28" s="100" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF28" s="102">
         <v>16319</v>
@@ -5133,7 +5142,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="97" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G29" s="96">
         <v>873</v>
@@ -5160,7 +5169,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="97" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P29" s="96">
         <v>59</v>
@@ -5181,7 +5190,7 @@
         <v>0</v>
       </c>
       <c r="V29" s="97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="W29" s="103">
         <v>1932</v>
@@ -5199,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="AB29" s="97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AC29" s="103">
         <v>4</v>
@@ -5240,7 +5249,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G30" s="96">
         <v>833</v>
@@ -5267,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P30" s="96">
         <v>52</v>
@@ -5288,7 +5297,7 @@
         <v>0</v>
       </c>
       <c r="V30" s="97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="W30" s="103">
         <v>773</v>
@@ -5306,7 +5315,7 @@
         <v>0</v>
       </c>
       <c r="AB30" s="97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AC30" s="103">
         <v>0</v>
@@ -5347,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="97" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G31" s="96">
         <v>1690</v>
@@ -5374,7 +5383,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="97" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P31" s="96">
         <v>148</v>
@@ -5395,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="V31" s="97" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="W31" s="103">
         <v>2679</v>
@@ -5413,16 +5422,16 @@
         <v>0</v>
       </c>
       <c r="AB31" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC31" s="103">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="103">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="100" t="s">
         <v>106</v>
-      </c>
-      <c r="AC31" s="103">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="103">
-        <v>0</v>
-      </c>
-      <c r="AE31" s="100" t="s">
-        <v>105</v>
       </c>
       <c r="AF31" s="102">
         <v>61036</v>
@@ -5454,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="97" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G32" s="96">
         <v>560</v>
@@ -5481,7 +5490,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="97" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P32" s="96">
         <v>50</v>
@@ -5502,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="V32" s="97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="W32" s="103">
         <v>468</v>
@@ -5520,7 +5529,7 @@
         <v>0</v>
       </c>
       <c r="AB32" s="97" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC32" s="103">
         <v>0</v>
@@ -5561,7 +5570,7 @@
         <v>7</v>
       </c>
       <c r="F33" s="97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G33" s="96">
         <v>501</v>
@@ -5588,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P33" s="96">
         <v>52</v>
@@ -5609,7 +5618,7 @@
         <v>0</v>
       </c>
       <c r="V33" s="97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="W33" s="103">
         <v>518</v>
@@ -5627,7 +5636,7 @@
         <v>7</v>
       </c>
       <c r="AB33" s="97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC33" s="103">
         <v>30</v>
@@ -5668,7 +5677,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="97" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G34" s="96">
         <v>1033</v>
@@ -5695,7 +5704,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="97" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P34" s="96">
         <v>175</v>
@@ -5716,7 +5725,7 @@
         <v>0</v>
       </c>
       <c r="V34" s="106" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W34" s="103">
         <v>1126</v>
@@ -5734,7 +5743,7 @@
         <v>0</v>
       </c>
       <c r="AB34" s="97" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC34" s="103">
         <v>110</v>
@@ -5775,7 +5784,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G35" s="96">
         <v>3360</v>
@@ -5802,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="97" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P35" s="96">
         <v>1197</v>
@@ -5823,10 +5832,10 @@
         <v>88</v>
       </c>
       <c r="V35" s="97" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W35" s="103">
-        <v>6255</v>
+        <v>5798</v>
       </c>
       <c r="X35" s="103">
         <v>9096</v>
@@ -5841,7 +5850,7 @@
         <v>88</v>
       </c>
       <c r="AB35" s="97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC35" s="103">
         <v>196</v>
@@ -5882,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="97" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G36" s="96">
         <v>1400</v>
@@ -5909,7 +5918,7 @@
         <v>0</v>
       </c>
       <c r="O36" s="97" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P36" s="96">
         <v>120</v>
@@ -5930,7 +5939,7 @@
         <v>0</v>
       </c>
       <c r="V36" s="97" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="W36" s="103">
         <v>1700</v>
@@ -5948,7 +5957,7 @@
         <v>0</v>
       </c>
       <c r="AB36" s="97" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AC36" s="103">
         <v>0</v>
@@ -5957,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="AE36" s="100" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF36" s="102">
         <v>38513</v>
@@ -5989,7 +5998,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G37" s="96">
         <v>566</v>
@@ -6016,7 +6025,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P37" s="96">
         <v>36</v>
@@ -6037,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="V37" s="97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="W37" s="103">
         <v>969</v>
@@ -6055,7 +6064,7 @@
         <v>0</v>
       </c>
       <c r="AB37" s="97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AC37" s="103">
         <v>0</v>
@@ -6064,7 +6073,7 @@
         <v>0</v>
       </c>
       <c r="AE37" s="100" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF37" s="102">
         <v>10550</v>
@@ -6096,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="97" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G38" s="96">
         <v>346</v>
@@ -6123,7 +6132,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="97" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P38" s="96">
         <v>17</v>
@@ -6144,7 +6153,7 @@
         <v>0</v>
       </c>
       <c r="V38" s="97" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="W38" s="103">
         <v>178</v>
@@ -6162,7 +6171,7 @@
         <v>0</v>
       </c>
       <c r="AB38" s="97" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AC38" s="103">
         <v>178</v>
@@ -6203,7 +6212,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="97" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G39" s="96">
         <v>250</v>
@@ -6230,7 +6239,7 @@
         <v>0</v>
       </c>
       <c r="O39" s="97" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P39" s="96">
         <v>30</v>
@@ -6251,7 +6260,7 @@
         <v>0</v>
       </c>
       <c r="V39" s="97" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="W39" s="103">
         <v>448</v>
@@ -6269,7 +6278,7 @@
         <v>0</v>
       </c>
       <c r="AB39" s="106" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AC39" s="103">
         <v>5</v>
@@ -6310,7 +6319,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="97" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G40" s="96">
         <v>312</v>
@@ -6337,7 +6346,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="97" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P40" s="96">
         <v>5</v>
@@ -6358,7 +6367,7 @@
         <v>0</v>
       </c>
       <c r="V40" s="97" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="W40" s="103">
         <v>133</v>
@@ -6376,7 +6385,7 @@
         <v>0</v>
       </c>
       <c r="AB40" s="97" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AC40" s="103">
         <v>0</v>
@@ -6385,7 +6394,7 @@
         <v>0</v>
       </c>
       <c r="AE40" s="100" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF40" s="102">
         <v>6653</v>
@@ -6417,7 +6426,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="97" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G41" s="96">
         <v>560</v>
@@ -6444,7 +6453,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="97" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P41" s="96">
         <v>27</v>
@@ -6465,7 +6474,7 @@
         <v>0</v>
       </c>
       <c r="V41" s="97" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="W41" s="103">
         <v>373</v>
@@ -6483,7 +6492,7 @@
         <v>0</v>
       </c>
       <c r="AB41" s="97" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AC41" s="103">
         <v>0</v>
@@ -6524,7 +6533,7 @@
         <v>2</v>
       </c>
       <c r="F42" s="97" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G42" s="96">
         <v>774</v>
@@ -6551,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="97" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P42" s="96">
         <v>49</v>
@@ -6572,7 +6581,7 @@
         <v>0</v>
       </c>
       <c r="V42" s="97" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="W42" s="103">
         <v>1228</v>
@@ -6590,7 +6599,7 @@
         <v>2</v>
       </c>
       <c r="AB42" s="97" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AC42" s="103">
         <v>19</v>
@@ -6631,7 +6640,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="97" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G43" s="96">
         <v>680</v>
@@ -6658,7 +6667,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="97" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P43" s="96">
         <v>47</v>
@@ -6679,7 +6688,7 @@
         <v>0</v>
       </c>
       <c r="V43" s="97" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="W43" s="103">
         <v>594</v>
@@ -6697,7 +6706,7 @@
         <v>0</v>
       </c>
       <c r="AB43" s="97" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AC43" s="103">
         <v>0</v>
@@ -6706,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="AE43" s="100" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF43" s="102">
         <v>11595</v>
@@ -6738,7 +6747,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="97" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G44" s="96">
         <v>185</v>
@@ -6765,7 +6774,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="97" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P44" s="96">
         <v>16</v>
@@ -6786,7 +6795,7 @@
         <v>0</v>
       </c>
       <c r="V44" s="97" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="W44" s="103">
         <v>414</v>
@@ -6804,7 +6813,7 @@
         <v>0</v>
       </c>
       <c r="AB44" s="97" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AC44" s="103">
         <v>0</v>
@@ -6845,7 +6854,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="97" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G45" s="96">
         <v>307</v>
@@ -6872,7 +6881,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="97" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P45" s="96">
         <v>29</v>
@@ -6893,7 +6902,7 @@
         <v>0</v>
       </c>
       <c r="V45" s="97" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="W45" s="103">
         <v>474</v>
@@ -6911,7 +6920,7 @@
         <v>0</v>
       </c>
       <c r="AB45" s="97" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AC45" s="103">
         <v>0</v>
@@ -6920,7 +6929,7 @@
         <v>0</v>
       </c>
       <c r="AE45" s="100" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF45" s="102">
         <v>8361</v>
@@ -6952,7 +6961,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G46" s="96">
         <v>433</v>
@@ -6979,7 +6988,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P46" s="96">
         <v>19</v>
@@ -7000,7 +7009,7 @@
         <v>0</v>
       </c>
       <c r="V46" s="97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="W46" s="103">
         <v>263</v>
@@ -7018,7 +7027,7 @@
         <v>0</v>
       </c>
       <c r="AB46" s="97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AC46" s="103">
         <v>67</v>
@@ -7059,7 +7068,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="97" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G47" s="96">
         <v>333</v>
@@ -7086,7 +7095,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="97" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P47" s="96">
         <v>24</v>
@@ -7107,7 +7116,7 @@
         <v>0</v>
       </c>
       <c r="V47" s="97" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="W47" s="103">
         <v>190</v>
@@ -7125,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="AB47" s="97" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AC47" s="103">
         <v>0</v>
@@ -7134,7 +7143,7 @@
         <v>0</v>
       </c>
       <c r="AE47" s="100" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF47" s="102">
         <v>5723</v>
@@ -7166,7 +7175,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="97" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G48" s="96">
         <v>2024</v>
@@ -7193,7 +7202,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="97" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P48" s="96">
         <v>217</v>
@@ -7214,7 +7223,7 @@
         <v>0</v>
       </c>
       <c r="V48" s="97" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="W48" s="103">
         <v>2239</v>
@@ -7232,7 +7241,7 @@
         <v>0</v>
       </c>
       <c r="AB48" s="97" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC48" s="103">
         <v>19</v>
@@ -7273,7 +7282,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="97" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G49" s="96">
         <v>488</v>
@@ -7300,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="97" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P49" s="96">
         <v>8</v>
@@ -7321,7 +7330,7 @@
         <v>0</v>
       </c>
       <c r="V49" s="97" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="W49" s="103">
         <v>390</v>
@@ -7339,7 +7348,7 @@
         <v>0</v>
       </c>
       <c r="AB49" s="97" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AC49" s="103">
         <v>50</v>
@@ -7380,7 +7389,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="97" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G50" s="96">
         <v>485</v>
@@ -7407,7 +7416,7 @@
         <v>0</v>
       </c>
       <c r="O50" s="97" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P50" s="96">
         <v>27</v>
@@ -7428,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="V50" s="97" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="W50" s="103">
         <v>626</v>
@@ -7446,7 +7455,7 @@
         <v>0</v>
       </c>
       <c r="AB50" s="97" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AC50" s="103">
         <v>0</v>
@@ -7455,7 +7464,7 @@
         <v>0</v>
       </c>
       <c r="AE50" s="100" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF50" s="102">
         <v>10472</v>
@@ -7487,7 +7496,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="97" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G51" s="96">
         <v>1038</v>
@@ -7514,7 +7523,7 @@
         <v>0</v>
       </c>
       <c r="O51" s="97" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P51" s="96">
         <v>59</v>
@@ -7535,7 +7544,7 @@
         <v>0</v>
       </c>
       <c r="V51" s="97" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="W51" s="103">
         <v>1226</v>
@@ -7553,7 +7562,7 @@
         <v>0</v>
       </c>
       <c r="AB51" s="97" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AC51" s="103">
         <v>0</v>
@@ -7562,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="AE51" s="100" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF51" s="102">
         <v>21594</v>
@@ -7594,7 +7603,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="97" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G52" s="96">
         <v>398</v>
@@ -7621,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="O52" s="97" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P52" s="96">
         <v>42</v>
@@ -7642,7 +7651,7 @@
         <v>42</v>
       </c>
       <c r="V52" s="97" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="W52" s="103">
         <v>1150</v>
@@ -7660,7 +7669,7 @@
         <v>42</v>
       </c>
       <c r="AB52" s="97" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC52" s="103">
         <v>175</v>
@@ -7701,7 +7710,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="97" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G53" s="96">
         <v>378</v>
@@ -7728,7 +7737,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="97" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P53" s="96">
         <v>17</v>
@@ -7749,7 +7758,7 @@
         <v>0</v>
       </c>
       <c r="V53" s="97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="W53" s="103">
         <v>500</v>
@@ -7767,7 +7776,7 @@
         <v>0</v>
       </c>
       <c r="AB53" s="97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AC53" s="103">
         <v>0</v>
@@ -7776,7 +7785,7 @@
         <v>0</v>
       </c>
       <c r="AE53" s="100" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF53" s="102">
         <v>10225</v>
@@ -7808,7 +7817,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="97" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G54" s="96">
         <v>499</v>
@@ -7835,7 +7844,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="97" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P54" s="96">
         <v>25</v>
@@ -7856,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="V54" s="97" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="W54" s="103">
         <v>1653</v>
@@ -7874,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="AB54" s="97" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC54" s="103">
         <v>0</v>
@@ -7915,7 +7924,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="111" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G55" s="110">
         <v>530</v>
@@ -7942,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="O55" s="111" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P55" s="110">
         <v>40</v>
@@ -7963,7 +7972,7 @@
         <v>9</v>
       </c>
       <c r="V55" s="111" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="W55" s="116">
         <v>1110</v>
@@ -7981,7 +7990,7 @@
         <v>9</v>
       </c>
       <c r="AB55" s="111" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AC55" s="116">
         <v>100</v>
@@ -8061,7 +8070,7 @@
       </c>
       <c r="V56" s="123"/>
       <c r="W56" s="121">
-        <v>56721</v>
+        <v>56264</v>
       </c>
       <c r="X56" s="121">
         <v>63579</v>
@@ -8778,7 +8787,9 @@
       <c r="AH74" s="133"/>
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A75" s="132"/>
+      <c r="A75" s="132" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="38">
@@ -8855,6 +8866,6 @@
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.31496062992125984" bottom="0.11811023622047245" header="0.11811023622047245" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="56" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="55" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>